--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinyang/Developer/Rust/calamine-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308DD347-D014-C345-BB5E-7408B723FE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B365351C-C1EC-F149-AC0E-72558E0F2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="2720" windowWidth="28300" windowHeight="17440" xr2:uid="{F95D1192-A36F-064A-99FD-A209D63DE99D}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">订单付款时间 </t>
+    <t>other_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,9 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4ADF8-1C29-D74B-B080-EA04B6DAE390}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
